--- a/admin/NFA_ACTIVE_CUSTOMERS_REPORT.xlsx
+++ b/admin/NFA_ACTIVE_CUSTOMERS_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>NFA ACTIVE CUSTOMERS REPORT</t>
   </si>
@@ -44,13 +44,187 @@
     <t>Service Provider in the Last Appointment</t>
   </si>
   <si>
+    <t>Andrew Baird</t>
+  </si>
+  <si>
+    <t>Custom Extension - 1x Month / ENR - 6</t>
+  </si>
+  <si>
+    <t>Emily Story</t>
+  </si>
+  <si>
+    <t>Armelle Wright</t>
+  </si>
+  <si>
+    <t>Junior package 6 lessons / ENR - 3</t>
+  </si>
+  <si>
+    <t>10-28-2025</t>
+  </si>
+  <si>
+    <t>Camila Yturrizaga</t>
+  </si>
+  <si>
+    <t>Arvi Baghdanian</t>
+  </si>
+  <si>
+    <t>Introductory Special 1 / ENR - 1</t>
+  </si>
+  <si>
+    <t>Erick Padilla</t>
+  </si>
+  <si>
+    <t>09-04-2025</t>
+  </si>
+  <si>
+    <t>Beatriz Oyanguren</t>
+  </si>
+  <si>
+    <t>Custom Renewal / 13971039</t>
+  </si>
+  <si>
+    <t>Sydney Abdelmessih</t>
+  </si>
+  <si>
+    <t>10-15-2025</t>
+  </si>
+  <si>
+    <t>Bella Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 5</t>
+  </si>
+  <si>
+    <t>11-04-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill  Anderson </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 2</t>
+  </si>
+  <si>
+    <t>Daisy Ramirez</t>
+  </si>
+  <si>
+    <t>11-05-2025</t>
+  </si>
+  <si>
+    <t>Binnie  Ruben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 1</t>
+  </si>
+  <si>
+    <t>10-31-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blake  Barkley </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 4</t>
+  </si>
+  <si>
+    <t>Jessy Moumaji</t>
+  </si>
+  <si>
+    <t>Brian  Matsuyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 3</t>
+  </si>
+  <si>
+    <t>Brooke Stonehouse</t>
+  </si>
+  <si>
+    <t>10-21-2025</t>
+  </si>
+  <si>
+    <t>Carl Lepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 10</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera</t>
+  </si>
+  <si>
+    <t>10-22-2025</t>
+  </si>
+  <si>
     <t>Carol Henry</t>
   </si>
   <si>
+    <t xml:space="preserve"> / ENR - 11</t>
+  </si>
+  <si>
+    <t>Caleb Castillo</t>
+  </si>
+  <si>
     <t xml:space="preserve"> / ENR - 14</t>
   </si>
   <si>
-    <t>Jessy Moumaji</t>
+    <t>Cathleen Miller</t>
+  </si>
+  <si>
+    <t>10-13-2025</t>
+  </si>
+  <si>
+    <t>Chris Alvarez</t>
+  </si>
+  <si>
+    <t>07-09-2025</t>
+  </si>
+  <si>
+    <t>Chris Doherty</t>
+  </si>
+  <si>
+    <t>Nicholas Kavoklis</t>
+  </si>
+  <si>
+    <t>11-03-2025</t>
+  </si>
+  <si>
+    <t>Christina Norris</t>
+  </si>
+  <si>
+    <t>10-27-2025</t>
+  </si>
+  <si>
+    <t>Christine Pongratz</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>09-30-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia  Sarkissian </t>
+  </si>
+  <si>
+    <t>06-26-2025</t>
+  </si>
+  <si>
+    <t>Cy Casidsid</t>
+  </si>
+  <si>
+    <t>1x month / ENR - 6</t>
+  </si>
+  <si>
+    <t>Dan  Lovejoy</t>
+  </si>
+  <si>
+    <t>Daniel Boston</t>
+  </si>
+  <si>
+    <t>David Boren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 2x/Mo / 13971029</t>
+  </si>
+  <si>
+    <t>David Garcia</t>
   </si>
   <si>
     <t>Diane Marsh</t>
@@ -59,13 +233,199 @@
     <t xml:space="preserve"> / ENR - 8</t>
   </si>
   <si>
-    <t>Emily Story</t>
+    <t>Dominique Nguyen</t>
+  </si>
+  <si>
+    <t>10-25-2025</t>
   </si>
   <si>
     <t>Dru Jeppe</t>
   </si>
   <si>
-    <t xml:space="preserve"> / ENR - 3</t>
+    <t xml:space="preserve">Earl Detrick </t>
+  </si>
+  <si>
+    <t>07-03-2025</t>
+  </si>
+  <si>
+    <t>Ed Benic</t>
+  </si>
+  <si>
+    <t>10-16-2025</t>
+  </si>
+  <si>
+    <t>Ed Cadji</t>
+  </si>
+  <si>
+    <t>10-01-2025</t>
+  </si>
+  <si>
+    <t>Elizabeth Kumar</t>
+  </si>
+  <si>
+    <t>1x month, 6 months / ENR - 4</t>
+  </si>
+  <si>
+    <t>10-10-2025</t>
+  </si>
+  <si>
+    <t>Emily Hare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 23</t>
+  </si>
+  <si>
+    <t>Gabby  Itkin</t>
+  </si>
+  <si>
+    <t>08-14-2025</t>
+  </si>
+  <si>
+    <t>Gary Bostrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 12</t>
+  </si>
+  <si>
+    <t>Geoff Robertson</t>
+  </si>
+  <si>
+    <t>FDN 8 / ENR - 2</t>
+  </si>
+  <si>
+    <t>Gina Holmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / Complimentary Enrollment</t>
+  </si>
+  <si>
+    <t>08-22-2025</t>
+  </si>
+  <si>
+    <t>Giovanna Andersen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 5x/Mo 90 Pay Plan / 13971001</t>
+  </si>
+  <si>
+    <t>Preston Scales</t>
+  </si>
+  <si>
+    <t>Gohar Nshanyan</t>
+  </si>
+  <si>
+    <t>1x month / ENR - 4</t>
+  </si>
+  <si>
+    <t>08-06-2025</t>
+  </si>
+  <si>
+    <t>Greg Henigman</t>
+  </si>
+  <si>
+    <t>Greta Bonilla</t>
+  </si>
+  <si>
+    <t>Herbert  Franz</t>
+  </si>
+  <si>
+    <t>Herman Fischer</t>
+  </si>
+  <si>
+    <t>Renewal 90 Days / ENR - 6</t>
+  </si>
+  <si>
+    <t>Hila Maish</t>
+  </si>
+  <si>
+    <t>2x month extension / ENR - 3</t>
+  </si>
+  <si>
+    <t>Yoshio Yamamoto</t>
+  </si>
+  <si>
+    <t>Ivy  Teves</t>
+  </si>
+  <si>
+    <t>Jack Conrad</t>
+  </si>
+  <si>
+    <t>Renewal 4x month / ENR - 7</t>
+  </si>
+  <si>
+    <t>Jason Rogland</t>
+  </si>
+  <si>
+    <t>Jennie Oâ€™Doherty</t>
+  </si>
+  <si>
+    <t>08-09-2025</t>
+  </si>
+  <si>
+    <t>Jeremy Black</t>
+  </si>
+  <si>
+    <t>Original / ENR - 2</t>
+  </si>
+  <si>
+    <t>Jessica Cruz</t>
+  </si>
+  <si>
+    <t>Extension- 1x month / ENR - 2</t>
+  </si>
+  <si>
+    <t>Jim Stidham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 5x/Mo / 13971064</t>
+  </si>
+  <si>
+    <t>Jimmy Vetkos</t>
+  </si>
+  <si>
+    <t>John Houselog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 3x/Mo / 13971027</t>
+  </si>
+  <si>
+    <t>Jonathan Griffin</t>
+  </si>
+  <si>
+    <t>Jordan Hisel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 7</t>
+  </si>
+  <si>
+    <t>Joyce Stein</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 27</t>
+  </si>
+  <si>
+    <t>Stefanie Scales</t>
+  </si>
+  <si>
+    <t>Robert Melgoza</t>
+  </si>
+  <si>
+    <t>Julie Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 5x/Mo Cash PIF / 13971011</t>
+  </si>
+  <si>
+    <t>11-06-2025</t>
+  </si>
+  <si>
+    <t>Julieta Brito</t>
+  </si>
+  <si>
+    <t>Website Special #1 / ENR - 1</t>
+  </si>
+  <si>
+    <t>08-20-2025</t>
   </si>
   <si>
     <t>Karen Wroblewski</t>
@@ -74,61 +434,379 @@
     <t>3x month / ENR - 49</t>
   </si>
   <si>
-    <t>Preston Scales</t>
-  </si>
-  <si>
     <t>10-23-2025</t>
   </si>
   <si>
+    <t>Karina Asturias</t>
+  </si>
+  <si>
+    <t>4x month Extension / ENR - 2</t>
+  </si>
+  <si>
     <t>Kat Price</t>
   </si>
   <si>
-    <t xml:space="preserve"> / ENR - 1</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez</t>
+    <t>Katherine Brannon</t>
+  </si>
+  <si>
+    <t>Kathleen Garrett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 9</t>
+  </si>
+  <si>
+    <t>Kathleen Rainey</t>
+  </si>
+  <si>
+    <t>Renewal 60 lessons PIF / ENR - 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimberly  Fardad </t>
+  </si>
+  <si>
+    <t>Kirk Memoli</t>
+  </si>
+  <si>
+    <t>20 Lesson at a time / ENR - 3</t>
+  </si>
+  <si>
+    <t>Kristen Dominguez</t>
+  </si>
+  <si>
+    <t>Intro Package / ENR - 1</t>
+  </si>
+  <si>
+    <t>10-24-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristin  Seckar </t>
+  </si>
+  <si>
+    <t>Lance Johnson</t>
+  </si>
+  <si>
+    <t>10-30-2025</t>
+  </si>
+  <si>
+    <t>Laura Monsalvo</t>
+  </si>
+  <si>
+    <t>Laura Zilli</t>
+  </si>
+  <si>
+    <t>10-08-2025</t>
+  </si>
+  <si>
+    <t>Lee Grubin</t>
+  </si>
+  <si>
+    <t>Introductory Package 3 / 13971065</t>
+  </si>
+  <si>
+    <t>Leetal Karkey-Selea</t>
+  </si>
+  <si>
+    <t>1x month Renewal / ENR - 6</t>
+  </si>
+  <si>
+    <t>Lexi Swanson</t>
+  </si>
+  <si>
+    <t>08-29-2025</t>
+  </si>
+  <si>
+    <t>Linda Comerford</t>
+  </si>
+  <si>
+    <t>4x month / ENR - 7</t>
   </si>
   <si>
     <t>Lucero De Alba</t>
   </si>
   <si>
-    <t xml:space="preserve"> / ENR - 11</t>
-  </si>
-  <si>
-    <t>11-03-2025</t>
-  </si>
-  <si>
     <t>Lynette Louise</t>
   </si>
   <si>
+    <t>Maria Rodriguez</t>
+  </si>
+  <si>
+    <t>Marie Towler</t>
+  </si>
+  <si>
+    <t>FDN 4 / ENR - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariela Tuchi </t>
+  </si>
+  <si>
+    <t>Matt Jackson</t>
+  </si>
+  <si>
+    <t>Meredith Evans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 5x/Mo Cash PIF / 13971002</t>
+  </si>
+  <si>
     <t>Michael  Anderson</t>
   </si>
   <si>
+    <t>Michele Lewinter</t>
+  </si>
+  <si>
+    <t>08-01-2025</t>
+  </si>
+  <si>
+    <t>Michelle Rosen</t>
+  </si>
+  <si>
+    <t>Michelle Selvaratnam</t>
+  </si>
+  <si>
+    <t>Ren 1x Month Program / ENR - 6</t>
+  </si>
+  <si>
+    <t>09-15-2025</t>
+  </si>
+  <si>
+    <t>Monica Waisman</t>
+  </si>
+  <si>
+    <t>Morgan MacDouglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 5x/Mo / 13971031</t>
+  </si>
+  <si>
+    <t>Nancy Smeets</t>
+  </si>
+  <si>
+    <t>Neil Bernardino</t>
+  </si>
+  <si>
+    <t>08-28-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole  Miller </t>
+  </si>
+  <si>
+    <t>Noelle Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 33</t>
+  </si>
+  <si>
+    <t>Norman Rachitsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 25</t>
+  </si>
+  <si>
+    <t>Patty Schlee</t>
+  </si>
+  <si>
+    <t>Renewal- 60 lesson PIF / ENR - 4</t>
+  </si>
+  <si>
+    <t>Paul Nordberg</t>
+  </si>
+  <si>
+    <t>1x month / ENR - 2</t>
+  </si>
+  <si>
+    <t>Paul Rainey</t>
+  </si>
+  <si>
+    <t>Coaching- Troy Beaten 1.5  / ENR - 22</t>
+  </si>
+  <si>
+    <t>07-23-2025</t>
+  </si>
+  <si>
+    <t>Coach Coach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 5x/Mo Cash PIF / 13971018</t>
+  </si>
+  <si>
+    <t>Rafael Drown</t>
+  </si>
+  <si>
+    <t>10-29-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revanth  Srinivasan </t>
+  </si>
+  <si>
+    <t>08-25-2025</t>
+  </si>
+  <si>
+    <t>Rhonda Kalan</t>
+  </si>
+  <si>
+    <t>Extension Bronze 2x/Mo / 13971043</t>
+  </si>
+  <si>
+    <t>Ricki  Revivo</t>
+  </si>
+  <si>
+    <t>Rob Hillig</t>
+  </si>
+  <si>
+    <t>2x month / ENR - 2</t>
+  </si>
+  <si>
+    <t>Rod Yasuda</t>
+  </si>
+  <si>
+    <t>FDN 8 / ENR - 15</t>
+  </si>
+  <si>
+    <t>Roger Dewames</t>
+  </si>
+  <si>
+    <t>Custom Renewal / ENR - 5</t>
+  </si>
+  <si>
+    <t>Rosa Salehian</t>
+  </si>
+  <si>
+    <t>15 lessons PIF / ENR - 12</t>
+  </si>
+  <si>
+    <t>Samantha Knecht</t>
+  </si>
+  <si>
+    <t>Wedding 10 / ENR - 1</t>
+  </si>
+  <si>
+    <t>Sandy D`Elia 2</t>
+  </si>
+  <si>
+    <t>Coaching Package / ENR - 11</t>
+  </si>
+  <si>
+    <t>09-22-2025</t>
+  </si>
+  <si>
+    <t>5x/Mo Renewal 90 Day Pay Plan / ENR - 8</t>
+  </si>
+  <si>
+    <t>10-09-2025</t>
+  </si>
+  <si>
+    <t>Bronze 90 Days PIF / ENR - 12</t>
+  </si>
+  <si>
+    <t>Sandy Jacobson</t>
+  </si>
+  <si>
     <t>SARAH  Stein</t>
   </si>
   <si>
     <t>10 lessons / ENR - 5</t>
   </si>
   <si>
-    <t>Sydney Abdelmessih</t>
-  </si>
-  <si>
-    <t>11-04-2025</t>
-  </si>
-  <si>
-    <t>Yoshio Yamamoto</t>
+    <t>Scott  Ahlberg</t>
+  </si>
+  <si>
+    <t>Seda Hall</t>
+  </si>
+  <si>
+    <t>06-30-2025</t>
+  </si>
+  <si>
+    <t>Seth Buda</t>
+  </si>
+  <si>
+    <t>Foundation Program 4 / 13971052</t>
+  </si>
+  <si>
+    <t>06-25-2025</t>
+  </si>
+  <si>
+    <t>Sharon Matsumoto</t>
+  </si>
+  <si>
+    <t>Shawn Hodnett</t>
+  </si>
+  <si>
+    <t>Bronze 90 Days PIF / ENR - 37</t>
+  </si>
+  <si>
+    <t>Sheike Avital</t>
+  </si>
+  <si>
+    <t>2x month Ext / ENR - 2</t>
+  </si>
+  <si>
+    <t>Sheli Friedman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 6</t>
   </si>
   <si>
     <t>Sheryl Hai-Ami</t>
   </si>
   <si>
-    <t xml:space="preserve"> / ENR - 33</t>
-  </si>
-  <si>
-    <t>Erick Padilla</t>
-  </si>
-  <si>
-    <t>11-06-2025</t>
+    <t>Sophie Franz</t>
+  </si>
+  <si>
+    <t>Extension Bronze 2x/Mo / 13971020</t>
+  </si>
+  <si>
+    <t>10-11-2025</t>
+  </si>
+  <si>
+    <t>Sravanti Kuppili</t>
+  </si>
+  <si>
+    <t>Coaching Lesson / ENR - 78</t>
+  </si>
+  <si>
+    <t>Bronze 90 Days PIF / ENR - 77</t>
+  </si>
+  <si>
+    <t>Stephanie Wronka</t>
+  </si>
+  <si>
+    <t>Sunny Trinh</t>
+  </si>
+  <si>
+    <t>Foundation 8 / ENR - 3</t>
+  </si>
+  <si>
+    <t>Susan Ealum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renewal 5x/Mo 90 Pay Plan / 13971000</t>
+  </si>
+  <si>
+    <t>Tate  Kaplan</t>
+  </si>
+  <si>
+    <t>Taylor Herrera</t>
+  </si>
+  <si>
+    <t>Ted Chun</t>
+  </si>
+  <si>
+    <t>Teresa Santos</t>
+  </si>
+  <si>
+    <t>Theresa Gale</t>
+  </si>
+  <si>
+    <t>6 lessons per month / ENR - 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim  Oglesbee </t>
+  </si>
+  <si>
+    <t>Tim Kanter</t>
+  </si>
+  <si>
+    <t>Will Gross</t>
   </si>
 </sst>
 </file>
@@ -500,10 +1178,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -571,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -590,183 +1268,2914 @@
         <v>13</v>
       </c>
       <c r="C6" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="5">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5">
+        <v>48</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="5">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5">
+        <v>24</v>
+      </c>
+      <c r="D37" s="5">
+        <v>24</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="5">
+        <v>60</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="5">
+        <v>60</v>
+      </c>
+      <c r="D42" s="5">
+        <v>37</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="5">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="5">
+        <v>24</v>
+      </c>
+      <c r="D44" s="5">
+        <v>21</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="5">
+        <v>48</v>
+      </c>
+      <c r="D45" s="5">
+        <v>43</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="5">
+        <v>60</v>
+      </c>
+      <c r="D47" s="5">
+        <v>23</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="5">
+        <v>24</v>
+      </c>
+      <c r="D48" s="5">
+        <v>19</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="5">
+        <v>48</v>
+      </c>
+      <c r="D50" s="5">
+        <v>29</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="5">
+        <v>20</v>
+      </c>
+      <c r="D51" s="5">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="5">
+        <v>5</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="5">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="5">
+        <v>60</v>
+      </c>
+      <c r="D55" s="5">
+        <v>34</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="5">
+        <v>18</v>
+      </c>
+      <c r="D57" s="5">
+        <v>18</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="5">
+        <v>24</v>
+      </c>
+      <c r="D58" s="5">
+        <v>18</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="5">
+        <v>60</v>
+      </c>
+      <c r="D59" s="5">
+        <v>18</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="5">
+        <v>22</v>
+      </c>
+      <c r="D60" s="5">
+        <v>18</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5">
+        <v>7</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="5">
+        <v>36</v>
+      </c>
+      <c r="D63" s="5">
+        <v>35</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="5">
+        <v>48</v>
+      </c>
+      <c r="D64" s="5">
+        <v>37</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="5">
+        <v>60</v>
+      </c>
+      <c r="D67" s="5">
+        <v>26</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="5">
+        <v>60</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="5">
+        <v>4</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="5">
+        <v>60</v>
+      </c>
+      <c r="D70" s="5">
+        <v>41</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="5">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="5">
+        <v>24</v>
+      </c>
+      <c r="D73" s="5">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="5">
+        <v>48</v>
+      </c>
+      <c r="D74" s="5">
+        <v>47</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="5">
+        <v>5</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="5">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="5">
+        <v>5</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="5">
+        <v>48</v>
+      </c>
+      <c r="D79" s="5">
+        <v>44</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="5">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5">
+        <v>10</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="5">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="5">
+        <v>4</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="5">
+        <v>60</v>
+      </c>
+      <c r="D85" s="5">
+        <v>47</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="5">
+        <v>60</v>
+      </c>
+      <c r="D86" s="5">
+        <v>29</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="5">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="5">
+        <v>12</v>
+      </c>
+      <c r="D90" s="5">
+        <v>11</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="5">
+        <v>36</v>
+      </c>
+      <c r="D91" s="5">
+        <v>23</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="5">
+        <v>60</v>
+      </c>
+      <c r="D92" s="5">
+        <v>47</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="5">
+        <v>60</v>
+      </c>
+      <c r="D93" s="5">
+        <v>30</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="5">
+        <v>24</v>
+      </c>
+      <c r="D94" s="5">
+        <v>23</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="5">
+        <v>48</v>
+      </c>
+      <c r="D95" s="5">
+        <v>45</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="5">
+        <v>60</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="5">
+        <v>60</v>
+      </c>
+      <c r="D97" s="5">
+        <v>54</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="5">
+        <v>60</v>
+      </c>
+      <c r="D98" s="5">
+        <v>26</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="5">
+        <v>6</v>
+      </c>
+      <c r="D99" s="5">
+        <v>6</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="5">
+        <v>60</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="5">
+        <v>4</v>
+      </c>
+      <c r="D102" s="5">
+        <v>3</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="5">
+        <v>8</v>
+      </c>
+      <c r="D103" s="5">
+        <v>7</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="5">
+        <v>24</v>
+      </c>
+      <c r="D104" s="5">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="5">
+        <v>5</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="5">
+        <v>24</v>
+      </c>
+      <c r="D106" s="5">
+        <v>15</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="5">
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>8</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="5">
+        <v>40</v>
+      </c>
+      <c r="D108" s="5">
+        <v>26</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="5">
+        <v>15</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" s="5">
+        <v>10</v>
+      </c>
+      <c r="D110" s="5">
+        <v>3</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" s="5">
+        <v>6</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" s="5">
+        <v>60</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" s="5">
+        <v>60</v>
+      </c>
+      <c r="D113" s="5">
+        <v>30</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="5">
+        <v>3</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="5">
+        <v>10</v>
+      </c>
+      <c r="D115" s="5">
+        <v>4</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="5">
+        <v>12</v>
+      </c>
+      <c r="D116" s="5">
+        <v>8</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="5">
+        <v>5</v>
+      </c>
+      <c r="D117" s="5">
+        <v>3</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="5">
+        <v>4</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="5">
+        <v>24</v>
+      </c>
+      <c r="D119" s="5">
+        <v>10</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="5">
+        <v>60</v>
+      </c>
+      <c r="D120" s="5">
+        <v>15</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="5">
+        <v>24</v>
+      </c>
+      <c r="D121" s="5">
+        <v>13</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="5">
+        <v>24</v>
+      </c>
+      <c r="D122" s="5">
+        <v>12</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" s="5">
+        <v>60</v>
+      </c>
+      <c r="D123" s="5">
+        <v>59</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="5">
+        <v>24</v>
+      </c>
+      <c r="D124" s="5">
+        <v>18</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" s="5">
+        <v>60</v>
+      </c>
+      <c r="D126" s="5">
+        <v>57</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="5">
+        <v>12</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="5">
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="5">
+        <v>60</v>
+      </c>
+      <c r="D129" s="5">
+        <v>2</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" s="5">
+        <v>5</v>
+      </c>
+      <c r="D130" s="5">
+        <v>5</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="5">
+        <v>5</v>
+      </c>
+      <c r="D131" s="5">
+        <v>2</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="5">
+        <v>60</v>
+      </c>
+      <c r="D132" s="5">
+        <v>32</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="5">
+        <v>12</v>
+      </c>
+      <c r="D133" s="5">
+        <v>3</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="5">
+        <v>60</v>
+      </c>
+      <c r="D134" s="5">
+        <v>47</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="5">
+        <v>5</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C136" s="5">
+        <v>60</v>
+      </c>
+      <c r="D136" s="5">
+        <v>33</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="5">
+        <v>3</v>
+      </c>
+      <c r="D137" s="5">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/admin/NFA_ACTIVE_CUSTOMERS_REPORT.xlsx
+++ b/admin/NFA_ACTIVE_CUSTOMERS_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>NFA ACTIVE CUSTOMERS REPORT</t>
   </si>
@@ -59,82 +59,67 @@
     <t>Jessy Moumaji</t>
   </si>
   <si>
-    <t>Diane Marsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> / ENR - 8</t>
+    <t>Dru Jeppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 3</t>
+  </si>
+  <si>
+    <t>11-04-2025</t>
+  </si>
+  <si>
+    <t>Emily Story</t>
+  </si>
+  <si>
+    <t>Karen Wroblewski</t>
+  </si>
+  <si>
+    <t>3x month / ENR - 49</t>
+  </si>
+  <si>
+    <t>Preston Scales</t>
+  </si>
+  <si>
+    <t>10-23-2025</t>
+  </si>
+  <si>
+    <t>Kat Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 1</t>
+  </si>
+  <si>
+    <t>Daisy Ramirez</t>
+  </si>
+  <si>
+    <t>Lucero De Alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 11</t>
+  </si>
+  <si>
+    <t>SARAH  Stein</t>
+  </si>
+  <si>
+    <t>10 lessons / ENR - 5</t>
+  </si>
+  <si>
+    <t>Sydney Abdelmessih</t>
+  </si>
+  <si>
+    <t>Yoshio Yamamoto</t>
+  </si>
+  <si>
+    <t>Sheryl Hai-Ami</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / ENR - 33</t>
+  </si>
+  <si>
+    <t>Erick Padilla</t>
   </si>
   <si>
     <t>11-06-2025</t>
-  </si>
-  <si>
-    <t>Emily Story</t>
-  </si>
-  <si>
-    <t>Dru Jeppe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> / ENR - 3</t>
-  </si>
-  <si>
-    <t>11-04-2025</t>
-  </si>
-  <si>
-    <t>Karen Wroblewski</t>
-  </si>
-  <si>
-    <t>3x month / ENR - 49</t>
-  </si>
-  <si>
-    <t>Preston Scales</t>
-  </si>
-  <si>
-    <t>10-23-2025</t>
-  </si>
-  <si>
-    <t>Kat Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> / ENR - 1</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez</t>
-  </si>
-  <si>
-    <t>Lucero De Alba</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> / ENR - 11</t>
-  </si>
-  <si>
-    <t>Lynette Louise</t>
-  </si>
-  <si>
-    <t>11-02-2025</t>
-  </si>
-  <si>
-    <t>Michael  Anderson</t>
-  </si>
-  <si>
-    <t>SARAH  Stein</t>
-  </si>
-  <si>
-    <t>10 lessons / ENR - 5</t>
-  </si>
-  <si>
-    <t>Sydney Abdelmessih</t>
-  </si>
-  <si>
-    <t>Yoshio Yamamoto</t>
-  </si>
-  <si>
-    <t>Sheryl Hai-Ami</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> / ENR - 33</t>
-  </si>
-  <si>
-    <t>Erick Padilla</t>
   </si>
 </sst>
 </file>
@@ -506,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,10 +590,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
@@ -624,45 +609,45 @@
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
@@ -672,140 +657,74 @@
         <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5">
-        <v>60</v>
-      </c>
-      <c r="E14" s="5">
-        <v>59</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>39</v>
+      <c r="H11" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
